--- a/biology/Zoologie/Breviceps_adspersus/Breviceps_adspersus.xlsx
+++ b/biology/Zoologie/Breviceps_adspersus/Breviceps_adspersus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Breviceps adspersus est une espèce d'amphibiens de la famille des Brevicipitidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Breviceps adspersus est une espèce d'amphibiens de la famille des Brevicipitidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre jusqu'à 1 400 m d'altitude[1] en Afrique du Sud, au Swaziland, dans le Sud du Mozambique, au Zimbabwe, dans l'ouest de la Zambie, au Botswana, dans le nord de la Namibie et en Angola.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre jusqu'à 1 400 m d'altitude en Afrique du Sud, au Swaziland, dans le Sud du Mozambique, au Zimbabwe, dans l'ouest de la Zambie, au Botswana, dans le nord de la Namibie et en Angola.
 Sa présence au Lesotho est incertaine.
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Breviceps adspersus est d'une coloration variant du brun clair au brun foncé avec des motifs jaune clair ou orangés de chaque côté du corps. Elle présente parfois des taches sombres et une ligne médiane.
 </t>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Peters, 1882 : Naturwissenschaftliche Reise nach Mossambique auf Befehl seiner Majestät des Königs Friedrich Wilhelm IV. in den Jahren 1842 bis 1848 ausgeführt von Wilhelm C. Peters. Zoologie III. Amphibien, Berlin (Reimer), p. 1-191 (texte intégral).</t>
         </is>
